--- a/vrp_rawsimo_output.xlsx
+++ b/vrp_rawsimo_output.xlsx
@@ -405,15 +405,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>205</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -442,15 +442,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>145</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>169</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -495,15 +495,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -548,15 +548,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>95</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -585,15 +585,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>62</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -638,15 +638,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>205</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -675,15 +675,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>215</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -728,15 +728,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>234</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -765,15 +765,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -818,15 +818,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>422</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
